--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09226200000000001</v>
+        <v>0.02506566666666667</v>
       </c>
       <c r="H2">
-        <v>0.276786</v>
+        <v>0.075197</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N2">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q2">
-        <v>0.849790191686</v>
+        <v>0.3109861837191111</v>
       </c>
       <c r="R2">
-        <v>7.648111725174</v>
+        <v>2.798875653472</v>
       </c>
       <c r="S2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="T2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09226200000000001</v>
+        <v>0.02506566666666667</v>
       </c>
       <c r="H3">
-        <v>0.276786</v>
+        <v>0.075197</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q3">
-        <v>4.056955950718</v>
+        <v>1.102190561033222</v>
       </c>
       <c r="R3">
-        <v>36.512603556462</v>
+        <v>9.919715049298999</v>
       </c>
       <c r="S3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="T3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09226200000000001</v>
+        <v>0.02506566666666667</v>
       </c>
       <c r="H4">
-        <v>0.276786</v>
+        <v>0.075197</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,25 +679,25 @@
         <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q4">
-        <v>1.452227406810001</v>
+        <v>0.3945399850783333</v>
       </c>
       <c r="R4">
-        <v>13.07004666129</v>
+        <v>3.550859865705</v>
       </c>
       <c r="S4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="T4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
     </row>
   </sheetData>
